--- a/classification/droptc/drone-sbert/freeze/14298463/prediction.xlsx
+++ b/classification/droptc/drone-sbert/freeze/14298463/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9505369067192078</v>
+        <v>0.9818415641784668</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4271504580974579</v>
+        <v>0.9179597496986389</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7829664945602417</v>
+        <v>0.7041418552398682</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9890162348747253</v>
+        <v>0.9115857481956482</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9879572987556458</v>
+        <v>0.8967684507369995</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9874663949012756</v>
+        <v>0.9112172722816467</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9852632284164429</v>
+        <v>0.9241565465927124</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8655328750610352</v>
+        <v>0.9833655953407288</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.985321581363678</v>
+        <v>0.967741072177887</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7754530310630798</v>
+        <v>0.9102956056594849</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9866385459899902</v>
+        <v>0.9782488346099854</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9868871569633484</v>
+        <v>0.8967684507369995</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9475899338722229</v>
+        <v>0.9779572486877441</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9395914673805237</v>
+        <v>0.9824011921882629</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9883785843849182</v>
+        <v>0.9190579652786255</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9482904076576233</v>
+        <v>0.9809361696243286</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8818218111991882</v>
+        <v>0.97797691822052</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5432851910591125</v>
+        <v>0.9819762706756592</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.988922119140625</v>
+        <v>0.9820024967193604</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9865812063217163</v>
+        <v>0.9808197617530823</v>
       </c>
     </row>
     <row r="22">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3950757682323456</v>
+        <v>0.8009850382804871</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9889397025108337</v>
+        <v>0.9807871580123901</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.9834966659545898</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9887258410453796</v>
+        <v>0.9222573041915894</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.9808727502822876</v>
       </c>
     </row>
     <row r="27">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6324911713600159</v>
+        <v>0.9797049760818481</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9853775501251221</v>
+        <v>0.9827932119369507</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9851491451263428</v>
+        <v>0.9780201315879822</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9867091178894043</v>
+        <v>0.9045738577842712</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9893534183502197</v>
+        <v>0.9796077013015747</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9893769025802612</v>
+        <v>0.9102956056594849</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9894989728927612</v>
+        <v>0.9809009432792664</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9875233769416809</v>
+        <v>0.9182252883911133</v>
       </c>
     </row>
     <row r="35">
@@ -1407,14 +1407,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9494016170501709</v>
+        <v>0.9825232028961182</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8716369867324829</v>
+        <v>0.9780201315879822</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9880736470222473</v>
+        <v>0.8391850590705872</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9853188991546631</v>
+        <v>0.9828129410743713</v>
       </c>
     </row>
     <row r="39">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9883592128753662</v>
+        <v>0.6311199069023132</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9894773364067078</v>
+        <v>0.9798530340194702</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9867618083953857</v>
+        <v>0.9810344576835632</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9464885592460632</v>
+        <v>0.8580242395401001</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.937646746635437</v>
+        <v>0.9799329042434692</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9513788819313049</v>
+        <v>0.9116318225860596</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.9227230548858643</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9882395267486572</v>
+        <v>0.8789358139038086</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9879441261291504</v>
+        <v>0.9104164242744446</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9886385798454285</v>
+        <v>0.9714581370353699</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9866325855255127</v>
+        <v>0.9820735454559326</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5461409687995911</v>
+        <v>0.9822096824645996</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9874454736709595</v>
+        <v>0.9272361397743225</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.3720045685768127</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.9780201315879822</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9867074489593506</v>
+        <v>0.9826138615608215</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9883460402488708</v>
+        <v>0.9820072054862976</v>
       </c>
     </row>
     <row r="56">
@@ -1995,14 +1995,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.943571925163269</v>
+        <v>0.9107756614685059</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9883434176445007</v>
+        <v>0.9227230548858643</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9887077808380127</v>
+        <v>0.9779841303825378</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9854432344436646</v>
+        <v>0.9189011454582214</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9350041747093201</v>
+        <v>0.9833655953407288</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9874546527862549</v>
+        <v>0.9808928966522217</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9451481699943542</v>
+        <v>0.9831854701042175</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9780201315879822</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9476418495178223</v>
+        <v>0.9135793447494507</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9893704652786255</v>
+        <v>0.9827934503555298</v>
       </c>
     </row>
     <row r="66">
@@ -2275,14 +2275,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9883667826652527</v>
+        <v>0.7415418028831482</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9851995706558228</v>
+        <v>0.9797284007072449</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.818044126033783</v>
+        <v>0.9178235530853271</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.9771231412887573</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.988482654094696</v>
+        <v>0.9780201315879822</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9876264929771423</v>
+        <v>0.8063990473747253</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9875367283821106</v>
+        <v>0.9827525615692139</v>
       </c>
     </row>
     <row r="73">
@@ -2471,14 +2471,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9866885542869568</v>
+        <v>0.4844098687171936</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9238815307617188</v>
+        <v>0.8794293999671936</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9894233345985413</v>
+        <v>0.9815710186958313</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9310824871063232</v>
+        <v>0.9822857975959778</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.910664975643158</v>
+        <v>0.5178133249282837</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9479426741600037</v>
+        <v>0.9214646816253662</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9779225587844849</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9888325929641724</v>
+        <v>0.9205039739608765</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9439972639083862</v>
+        <v>0.9826927185058594</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3521118760108948</v>
+        <v>0.9800134897232056</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9873726963996887</v>
+        <v>0.9819263815879822</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9866487383842468</v>
+        <v>0.9780201315879822</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7853519916534424</v>
+        <v>0.9182128310203552</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9866513013839722</v>
+        <v>0.9798530340194702</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9895265102386475</v>
+        <v>0.9778116345405579</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9238815307617188</v>
+        <v>0.92678302526474</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9867333769798279</v>
+        <v>0.9819854497909546</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9893534183502197</v>
+        <v>0.9778615832328796</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9883435964584351</v>
+        <v>0.9178619980812073</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9879781007766724</v>
+        <v>0.9798226952552795</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9880279302597046</v>
+        <v>0.981964647769928</v>
       </c>
     </row>
     <row r="94">
@@ -3059,14 +3059,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6339196562767029</v>
+        <v>0.9797917008399963</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9394904971122742</v>
+        <v>0.9809718132019043</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7491223216056824</v>
+        <v>0.9183119535446167</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9846131801605225</v>
+        <v>0.9798255562782288</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9391817450523376</v>
+        <v>0.9813975095748901</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5038356781005859</v>
+        <v>0.9797210693359375</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.988922119140625</v>
+        <v>0.9798339009284973</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9476932287216187</v>
+        <v>0.9100404381752014</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.98799067735672</v>
+        <v>0.9147067070007324</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9798881411552429</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.988260805606842</v>
+        <v>0.9227230548858643</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9883295297622681</v>
+        <v>0.9779325723648071</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9887980818748474</v>
+        <v>0.9824159145355225</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7852147221565247</v>
+        <v>0.9182255864143372</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8476319313049316</v>
+        <v>0.8829594850540161</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.98911052942276</v>
+        <v>0.9183119535446167</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8788851499557495</v>
+        <v>0.9254887700080872</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9879680871963501</v>
+        <v>0.9060850739479065</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9875264763832092</v>
+        <v>0.9833532571792603</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9221690893173218</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8823466300964355</v>
+        <v>0.982653796672821</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6218952536582947</v>
+        <v>0.9807015061378479</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.9827795028686523</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7826108336448669</v>
+        <v>0.9182128310203552</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9886379837989807</v>
+        <v>0.9102956056594849</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9881298542022705</v>
+        <v>0.9126527905464172</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9888995885848999</v>
+        <v>0.981791615486145</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9879706501960754</v>
+        <v>0.9037060737609863</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5637888312339783</v>
+        <v>0.9821879267692566</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8786795735359192</v>
+        <v>0.9830584526062012</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9444196224212646</v>
+        <v>0.9834669232368469</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9867044687271118</v>
+        <v>0.9836994409561157</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.9780201315879822</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9866901636123657</v>
+        <v>0.983586847782135</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9305458068847656</v>
+        <v>0.9829014539718628</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9874146580696106</v>
+        <v>0.9817527532577515</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.9797220230102539</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9872776865959167</v>
+        <v>0.9832027554512024</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9893398880958557</v>
+        <v>0.98113614320755</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9865825772285461</v>
+        <v>0.4344302415847778</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9867559671401978</v>
+        <v>0.9816670417785645</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8830226063728333</v>
+        <v>0.9816504120826721</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9805886149406433</v>
+        <v>0.9798902273178101</v>
       </c>
     </row>
     <row r="137">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9505507946014404</v>
+        <v>0.978018581867218</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7851717472076416</v>
+        <v>0.9818461537361145</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9883621335029602</v>
+        <v>0.9815704226493835</v>
       </c>
     </row>
     <row r="140">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9855276346206665</v>
+        <v>0.8702539801597595</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9867618083953857</v>
+        <v>0.3250980973243713</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.941521167755127</v>
+        <v>0.6868333220481873</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9885486364364624</v>
+        <v>0.8664560317993164</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9867091178894043</v>
+        <v>0.9796862006187439</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9895833730697632</v>
+        <v>0.9835221767425537</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9867501854896545</v>
+        <v>0.9835267663002014</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9340145587921143</v>
+        <v>0.9273087978363037</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9868173003196716</v>
+        <v>0.9816494584083557</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9853775501251221</v>
+        <v>0.9820015430450439</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9327421188354492</v>
+        <v>0.9779841303825378</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9814721345901489</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.4782919883728027</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9446672201156616</v>
+        <v>0.9064105153083801</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9895263910293579</v>
+        <v>0.9129297137260437</v>
       </c>
     </row>
     <row r="155">
@@ -4767,14 +4767,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9893552660942078</v>
+        <v>0.9244555830955505</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9891949892044067</v>
+        <v>0.9814918637275696</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9882071614265442</v>
+        <v>0.9829229116439819</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.9100404381752014</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9883601665496826</v>
+        <v>0.9780201315879822</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9438416361808777</v>
+        <v>0.9236646890640259</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9827238917350769</v>
+        <v>0.9820412397384644</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9888898134231567</v>
+        <v>0.9806337952613831</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9357576370239258</v>
+        <v>0.9816398024559021</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9385473728179932</v>
+        <v>0.9827216267585754</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9868118166923523</v>
+        <v>0.9798442125320435</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9853410124778748</v>
+        <v>0.9747332334518433</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9881209135055542</v>
+        <v>0.9827525615692139</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9491302967071533</v>
+        <v>0.9060850739479065</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9019412994384766</v>
+        <v>0.8772193193435669</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.988243043422699</v>
+        <v>0.9819759130477905</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9867096543312073</v>
+        <v>0.9780201315879822</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.98272705078125</v>
+        <v>0.9746463894844055</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.988925039768219</v>
+        <v>0.9814730286598206</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9881906509399414</v>
+        <v>0.9796318411827087</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9875022172927856</v>
+        <v>0.9799160957336426</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9443725347518921</v>
+        <v>0.9797917008399963</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.924184262752533</v>
+        <v>0.9815298914909363</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9443725347518921</v>
+        <v>0.981875479221344</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9879789352416992</v>
+        <v>0.9747669100761414</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9874632358551025</v>
+        <v>0.9798530340194702</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9892356991767883</v>
+        <v>0.8789706230163574</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9305458068847656</v>
+        <v>0.982468843460083</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.4209804534912109</v>
+        <v>0.9193416237831116</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9889602661132812</v>
+        <v>0.9221514463424683</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9779716730117798</v>
+        <v>0.9826307892799377</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9372599720954895</v>
+        <v>0.9109079837799072</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6055073738098145</v>
+        <v>0.877282440662384</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9881068468093872</v>
+        <v>0.9808377623558044</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9884846806526184</v>
+        <v>0.9173641204833984</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9524835348129272</v>
+        <v>0.9808264970779419</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9876691699028015</v>
+        <v>0.9047123789787292</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9880800843238831</v>
+        <v>0.9835050702095032</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9401558041572571</v>
+        <v>0.9834079146385193</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9879705309867859</v>
+        <v>0.7272719740867615</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9887945652008057</v>
+        <v>0.9798054099082947</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9853620529174805</v>
+        <v>0.8792195916175842</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9294271469116211</v>
+        <v>0.9262159466743469</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9874788522720337</v>
+        <v>0.9808499217033386</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.775861382484436</v>
+        <v>0.9809083938598633</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.3186626434326172</v>
+        <v>0.9814959168434143</v>
       </c>
     </row>
     <row r="201">
@@ -6055,14 +6055,14 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.8786795735359192</v>
+        <v>0.9811806678771973</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9476932287216187</v>
+        <v>0.9798313975334167</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9887024164199829</v>
+        <v>0.9183119535446167</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9403328895568848</v>
+        <v>0.6818447709083557</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9503456354141235</v>
+        <v>0.8975688219070435</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9888717532157898</v>
+        <v>0.6507453918457031</v>
       </c>
     </row>
     <row r="207">
@@ -6223,14 +6223,14 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9874962568283081</v>
+        <v>0.7192966938018799</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9337078928947449</v>
+        <v>0.9221514463424683</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9827663898468018</v>
+        <v>0.9833289384841919</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9888618588447571</v>
+        <v>0.9825279116630554</v>
       </c>
     </row>
   </sheetData>
